--- a/Results_and_scripts_ps/validation_19_06/validation.xlsx
+++ b/Results_and_scripts_ps/validation_19_06/validation.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Errors" sheetId="1" r:id="rId1"/>
+    <sheet name="Simulation time" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="51">
   <si>
     <t>case 1</t>
   </si>
@@ -34,13 +34,151 @@
   </si>
   <si>
     <t>sections</t>
+  </si>
+  <si>
+    <t>case 2</t>
+  </si>
+  <si>
+    <t>case 3</t>
+  </si>
+  <si>
+    <t>case 4</t>
+  </si>
+  <si>
+    <t>case 5</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>case 6</t>
+  </si>
+  <si>
+    <t>case 7</t>
+  </si>
+  <si>
+    <t>case 8</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>dilu_on</t>
+  </si>
+  <si>
+    <t>Cvap0</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>elapsed time (s)</t>
+  </si>
+  <si>
+    <t>sec/h</t>
+  </si>
+  <si>
+    <t>10 sections</t>
+  </si>
+  <si>
+    <t>[1e3, 1e2]</t>
+  </si>
+  <si>
+    <t>[50e-9, 140e-9]</t>
+  </si>
+  <si>
+    <t>1.4e7</t>
+  </si>
+  <si>
+    <t>[1.25, 1.3]</t>
+  </si>
+  <si>
+    <t>[40e-9, 200e-9]</t>
+  </si>
+  <si>
+    <t>5e8</t>
+  </si>
+  <si>
+    <t>[1.25, 1.4]</t>
+  </si>
+  <si>
+    <t>[5e4 3e3]</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>run_20130617T160523</t>
+  </si>
+  <si>
+    <t>20 sections</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>30 sections</t>
+  </si>
+  <si>
+    <t>60 sections</t>
+  </si>
+  <si>
+    <t>90 sections</t>
+  </si>
+  <si>
+    <t>120 sections</t>
+  </si>
+  <si>
+    <t>200 sections</t>
+  </si>
+  <si>
+    <t>run_20130617T160605</t>
+  </si>
+  <si>
+    <t>run_20130617T160743</t>
+  </si>
+  <si>
+    <t>run_20130617T162150</t>
+  </si>
+  <si>
+    <t>run_20130617T172505</t>
+  </si>
+  <si>
+    <t>run_20130617T214959</t>
+  </si>
+  <si>
+    <t>run_20130619T041402</t>
+  </si>
+  <si>
+    <t>Failed, tolerance problem with ode45</t>
+  </si>
+  <si>
+    <t>Error of Ntot at halfway of simulation</t>
+  </si>
+  <si>
+    <t>Error of Ntot at the end of simulation</t>
+  </si>
+  <si>
+    <t>Error of Vtot at halfway of simulation</t>
+  </si>
+  <si>
+    <t>Error of Vtot at the end of simulation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,16 +186,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -65,15 +236,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -83,6 +296,827 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fi-FI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.55860357745261591"/>
+                  <c:y val="-5.0595625392404552E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Simulation time'!$N$3:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simulation time'!$O$3:$O$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.18500226189400779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16788035676456001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15373314069372668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18262398591158113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12828746561502447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17388361410573777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15186489998401778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18837662646570999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44843899024205225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46453847295517775</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53669091409916325</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63113385298989666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32845334378134111</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62423553060434334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4860935834369845</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.61417141183343882</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91148805187229442</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0224629326440211</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4891279957623555</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6737872052165887</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4636986768766334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4783915626275557</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7215231642355999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.1978919753630883</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.5114728003459446</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.066563683229333</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.841544053125224</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.651588145359167</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.0887869388493998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.658341435706667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.361113667879888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="39181696"/>
+        <c:axId val="94446720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="39181696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94446720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94446720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39181696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fi-FI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12026066671357513"/>
+                  <c:y val="-7.6609117791674453E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Simulation time'!$N$3:$N$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simulation time'!$O$3:$O$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0.18500226189400779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16788035676456001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15373314069372668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18262398591158113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12828746561502447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17388361410573777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15186489998401778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18837662646570999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44843899024205225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46453847295517775</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53669091409916325</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63113385298989666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32845334378134111</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62423553060434334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4860935834369845</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.61417141183343882</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91148805187229442</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0224629326440211</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4891279957623555</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6737872052165887</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4636986768766334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4783915626275557</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7215231642355999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.1978919753630883</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.5114728003459446</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.066563683229333</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.841544053125224</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.651588145359167</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.0887869388493998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.658341435706667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.361113667879888</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29.941367502453886</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30.295129400114334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>72.478285906609656</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74.642944520969337</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28.034161067164998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28.648484994261999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>79.832136035062888</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76.243792548595991</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>116.58365186039221</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>119.27255343512999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>303.30537999373888</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>303.56033587567003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>130.70410976965334</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>152.34676967861111</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>323.06070966278662</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>314.69618927429332</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>920.50439074695555</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>920.74108477906566</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2279.405895106911</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2150.7725306112889</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>885.47079017338444</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>977.53130908518767</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2118.6642242843891</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1903.0455330043224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="94475392"/>
+        <c:axId val="94476928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="94475392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94476928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94476928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94475392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,15 +1406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F8"/>
+  <dimension ref="A2:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -399,8 +1433,14 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>10</v>
       </c>
@@ -416,8 +1456,14 @@
       <c r="F3">
         <v>5.8838655860790903</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>20</v>
       </c>
@@ -433,8 +1479,14 @@
       <c r="F4">
         <v>1.69346184571646E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>30</v>
       </c>
@@ -450,8 +1502,14 @@
       <c r="F5">
         <v>3.5906643050213202E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>60</v>
       </c>
@@ -468,30 +1526,3212 @@
         <v>1.2739249163922399E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1.5464353635278999E-3</v>
+      </c>
+      <c r="D7">
+        <v>4.7708579282527896E-3</v>
+      </c>
+      <c r="E7">
+        <v>1.47314100398438E-3</v>
+      </c>
+      <c r="F7">
+        <v>7.1967221592313503E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>120</v>
       </c>
+      <c r="C8">
+        <v>9.1259855148643197E-4</v>
+      </c>
+      <c r="D8">
+        <v>2.3658343914798102E-3</v>
+      </c>
+      <c r="E8">
+        <v>1.0082370650388601E-3</v>
+      </c>
+      <c r="F8">
+        <v>4.0076991435024504E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>26.387675980759798</v>
+      </c>
+      <c r="D11">
+        <v>26.392478400366102</v>
+      </c>
+      <c r="E11">
+        <v>6.3033918798755701</v>
+      </c>
+      <c r="F11">
+        <v>5.8324977806186196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>2.1232142601351801E-2</v>
+      </c>
+      <c r="D12">
+        <v>2.1805715243745E-2</v>
+      </c>
+      <c r="E12">
+        <v>5.5930254696439996E-3</v>
+      </c>
+      <c r="F12">
+        <v>4.2932938065306002E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>1.0527420490310699E-2</v>
+      </c>
+      <c r="D13">
+        <v>1.19906480011534E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.20527612586739E-2</v>
+      </c>
+      <c r="F13">
+        <v>5.0122856031590002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>6.1534205082652898E-3</v>
+      </c>
+      <c r="D14">
+        <v>7.2023161398094299E-3</v>
+      </c>
+      <c r="E14">
+        <v>5.4295349256325903E-3</v>
+      </c>
+      <c r="F14">
+        <v>6.5698185073238399E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>90</v>
+      </c>
+      <c r="C15">
+        <v>4.6443672373149602E-3</v>
+      </c>
+      <c r="D15">
+        <v>6.0490311208602201E-3</v>
+      </c>
+      <c r="E15">
+        <v>3.1124405735758502E-3</v>
+      </c>
+      <c r="F15">
+        <v>1.4813501297717599E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>120</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6.2630554732754295E-5</v>
+      </c>
+      <c r="D16">
+        <v>2.31805120691301E-4</v>
+      </c>
+      <c r="E16">
+        <v>9.4724174113253396E-4</v>
+      </c>
+      <c r="F16">
+        <v>3.89170247130525E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>11.940266632696799</v>
+      </c>
+      <c r="D19">
+        <v>11.8805498361776</v>
+      </c>
+      <c r="E19">
+        <v>10.571879817402101</v>
+      </c>
+      <c r="F19">
+        <v>17.6138377893766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0.10213829918343</v>
+      </c>
+      <c r="D20">
+        <v>0.107530570742139</v>
+      </c>
+      <c r="E20">
+        <v>1.2873054904205601</v>
+      </c>
+      <c r="F20">
+        <v>1.55944616452495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>2.1372074352805699E-2</v>
+      </c>
+      <c r="D21">
+        <v>2.7402479699384499E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.71452205634846799</v>
+      </c>
+      <c r="F21">
+        <v>0.86200832825117302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>60</v>
+      </c>
+      <c r="C22">
+        <v>6.42166102368622E-3</v>
+      </c>
+      <c r="D22">
+        <v>1.06028791047964E-2</v>
+      </c>
+      <c r="E22">
+        <v>0.24312616814524601</v>
+      </c>
+      <c r="F22">
+        <v>0.362313737651003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>90</v>
+      </c>
+      <c r="C23">
+        <v>2.19849972508291E-3</v>
+      </c>
+      <c r="D23">
+        <v>4.2069442224532197E-3</v>
+      </c>
+      <c r="E23">
+        <v>8.3959214151954495E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.15075716404019801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>120</v>
+      </c>
+      <c r="C24">
+        <v>9.913971910712261E-4</v>
+      </c>
+      <c r="D24">
+        <v>1.8707731295949E-3</v>
+      </c>
+      <c r="E24">
+        <v>4.0939339659009998E-2</v>
+      </c>
+      <c r="F24">
+        <v>6.8812121130635298E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>12.0198887575703</v>
+      </c>
+      <c r="D27">
+        <v>12.0063782653022</v>
+      </c>
+      <c r="E27">
+        <v>10.6742796790718</v>
+      </c>
+      <c r="F27">
+        <v>17.826782385134699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>4.9222436551784002E-2</v>
+      </c>
+      <c r="D28">
+        <v>5.2914691530213297E-2</v>
+      </c>
+      <c r="E28">
+        <v>1.2688438318961499</v>
+      </c>
+      <c r="F28">
+        <v>1.54459355060823</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>2.07353180134137E-2</v>
+      </c>
+      <c r="D29">
+        <v>2.2163898078756902E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.68901092733500702</v>
+      </c>
+      <c r="F29">
+        <v>0.81818122490589995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>1.2073761477474701E-3</v>
+      </c>
+      <c r="D30">
+        <v>1.9457459211291001E-3</v>
+      </c>
+      <c r="E30">
+        <v>0.24036093170974099</v>
+      </c>
+      <c r="F30">
+        <v>0.35696807381414802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>90</v>
+      </c>
+      <c r="C31" s="1">
+        <v>9.6074765043213E-5</v>
+      </c>
+      <c r="D31">
+        <v>5.04896780328552E-4</v>
+      </c>
+      <c r="E31">
+        <v>8.3456827594680302E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.14827409144987799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>120</v>
+      </c>
+      <c r="C32">
+        <v>2.6394268785050998E-4</v>
+      </c>
+      <c r="D32">
+        <v>1.83801342792889E-4</v>
+      </c>
+      <c r="E32">
+        <v>4.0917961264248702E-2</v>
+      </c>
+      <c r="F32">
+        <v>6.9298149326929695E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>13.523044135926099</v>
+      </c>
+      <c r="D35">
+        <v>6.4144209344377803</v>
+      </c>
+      <c r="E35">
+        <v>7.1977159480077599</v>
+      </c>
+      <c r="F35">
+        <v>7.6808571412294597</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>0.300103487597151</v>
+      </c>
+      <c r="D36">
+        <v>0.708502604723798</v>
+      </c>
+      <c r="E36">
+        <v>6.1324261835924099E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.227010027257322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>60</v>
+      </c>
+      <c r="C38">
+        <v>3.18113252385531E-3</v>
+      </c>
+      <c r="D38">
+        <v>7.8918597945784402E-2</v>
+      </c>
+      <c r="E38">
+        <v>1.01085441631049E-2</v>
+      </c>
+      <c r="F38">
+        <v>2.0938508970200699E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>90</v>
+      </c>
+      <c r="C39">
+        <v>2.2706447749704799E-2</v>
+      </c>
+      <c r="D39">
+        <v>5.1691028619971401E-2</v>
+      </c>
+      <c r="E39">
+        <v>3.1385745540828498E-3</v>
+      </c>
+      <c r="F39">
+        <v>6.7064100255176499E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>120</v>
+      </c>
+      <c r="C40">
+        <v>1.5691485990201901E-2</v>
+      </c>
+      <c r="D40">
+        <v>2.9159395939787398E-2</v>
+      </c>
+      <c r="E40">
+        <v>1.0729046437144901E-3</v>
+      </c>
+      <c r="F40">
+        <v>2.31725214572753E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>23.224588872823499</v>
+      </c>
+      <c r="D43">
+        <v>23.155541303899401</v>
+      </c>
+      <c r="E43">
+        <v>6.8330180881022597</v>
+      </c>
+      <c r="F43">
+        <v>6.4746932516142799</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>5.7521398433934501E-2</v>
+      </c>
+      <c r="D44">
+        <v>5.7202799069747602E-2</v>
+      </c>
+      <c r="E44">
+        <v>3.65646270462738E-2</v>
+      </c>
+      <c r="F44">
+        <v>8.3592726204374093E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <v>2.6465951578171599E-2</v>
+      </c>
+      <c r="D45">
+        <v>2.9006331617411198E-2</v>
+      </c>
+      <c r="E45">
+        <v>2.96105863217202E-2</v>
+      </c>
+      <c r="F45">
+        <v>4.5401645511898799E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>60</v>
+      </c>
+      <c r="C46">
+        <v>1.3476735716661199E-2</v>
+      </c>
+      <c r="D46">
+        <v>1.3430527069255601E-2</v>
+      </c>
+      <c r="E46">
+        <v>1.35734757226793E-2</v>
+      </c>
+      <c r="F46">
+        <v>4.2459883060354999E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>90</v>
+      </c>
+      <c r="C47">
+        <v>3.2336920758744502E-3</v>
+      </c>
+      <c r="D47">
+        <v>4.1492223515798799E-3</v>
+      </c>
+      <c r="E47">
+        <v>3.6569400783891498E-3</v>
+      </c>
+      <c r="F47">
+        <v>1.06636552928407E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>120</v>
+      </c>
+      <c r="C48">
+        <v>1.2192898711842501E-3</v>
+      </c>
+      <c r="D48">
+        <v>1.3711768066717301E-3</v>
+      </c>
+      <c r="E48">
+        <v>3.5427415234918602E-4</v>
+      </c>
+      <c r="F48">
+        <v>2.9605396579306998E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>9.5793789180074693</v>
+      </c>
+      <c r="D51">
+        <v>8.6056796779072293</v>
+      </c>
+      <c r="E51">
+        <v>9.3353824195308093</v>
+      </c>
+      <c r="F51">
+        <v>12.0723494406081</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>1.0602909726071501</v>
+      </c>
+      <c r="D52">
+        <v>1.11401980766794</v>
+      </c>
+      <c r="E52">
+        <v>1.0572530480452</v>
+      </c>
+      <c r="F52">
+        <v>1.59283032666485</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>30</v>
+      </c>
+      <c r="C53">
+        <v>0.56486516990302205</v>
+      </c>
+      <c r="D53">
+        <v>0.73208582508972297</v>
+      </c>
+      <c r="E53">
+        <v>0.67596851747211395</v>
+      </c>
+      <c r="F53">
+        <v>1.1463689697460699</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>60</v>
+      </c>
+      <c r="C54">
+        <v>0.154162233038171</v>
+      </c>
+      <c r="D54">
+        <v>0.212167617499118</v>
+      </c>
+      <c r="E54">
+        <v>0.218994510220236</v>
+      </c>
+      <c r="F54">
+        <v>0.35629826086203698</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>90</v>
+      </c>
+      <c r="C55">
+        <v>6.2576164080832899E-2</v>
+      </c>
+      <c r="D55">
+        <v>8.0894224994598904E-2</v>
+      </c>
+      <c r="E55">
+        <v>8.9118665379986597E-2</v>
+      </c>
+      <c r="F55">
+        <v>0.13697019521078499</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>120</v>
+      </c>
+      <c r="C56">
+        <v>2.9299599908789001E-2</v>
+      </c>
+      <c r="D56">
+        <v>3.9957745782681298E-2</v>
+      </c>
+      <c r="E56">
+        <v>4.2804279887291102E-2</v>
+      </c>
+      <c r="F56">
+        <v>6.9022799097061299E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>11.7851187675932</v>
+      </c>
+      <c r="D59">
+        <v>11.7807552562225</v>
+      </c>
+      <c r="E59">
+        <v>12.221158052911701</v>
+      </c>
+      <c r="F59">
+        <v>17.686928429490301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>0.48887862219129602</v>
+      </c>
+      <c r="D60">
+        <v>0.49255918889196099</v>
+      </c>
+      <c r="E60">
+        <v>1.1662266593206301</v>
+      </c>
+      <c r="F60">
+        <v>1.68172185461321</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>30</v>
+      </c>
+      <c r="C61">
+        <v>0.19339231908753499</v>
+      </c>
+      <c r="D61">
+        <v>0.193938388039996</v>
+      </c>
+      <c r="E61">
+        <v>0.79024242475663498</v>
+      </c>
+      <c r="F61">
+        <v>1.01360414802504</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>5.3391752938198603E-2</v>
+      </c>
+      <c r="D62">
+        <v>5.3676633397386701E-2</v>
+      </c>
+      <c r="E62">
+        <v>0.23968763759341299</v>
+      </c>
+      <c r="F62">
+        <v>0.40029764902426102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>90</v>
+      </c>
+      <c r="C63">
+        <v>2.4567876670529398E-2</v>
+      </c>
+      <c r="D63">
+        <v>2.4676149169435498E-2</v>
+      </c>
+      <c r="E63">
+        <v>0.103320569926176</v>
+      </c>
+      <c r="F63">
+        <v>0.16549584693786801</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>120</v>
+      </c>
+      <c r="C64">
+        <v>1.1333765617019801E-2</v>
+      </c>
+      <c r="D64">
+        <v>1.1365187872339999E-2</v>
+      </c>
+      <c r="E64">
+        <v>4.8802272932827802E-2</v>
+      </c>
+      <c r="F64">
+        <v>7.8259292112066406E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:O84"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>0.18500226189400779</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <v>1.66502035704607</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:K11" si="0">J4/9</f>
+        <v>0.18500226189400779</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>0.16788035676456001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>1.51092321088104</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16788035676456001</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>0.15373314069372668</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6">
+        <v>1.38359826624354</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15373314069372668</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>0.18262398591158113</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7">
+        <v>1.6436158732042301</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18262398591158113</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>0.12828746561502447</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8">
+        <v>1.1545871905352201</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12828746561502447</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>0.17388361410573777</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9">
+        <v>1.56495252695164</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.17388361410573777</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>0.15186489998401778</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10">
+        <v>1.36678409985616</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15186489998401778</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>0.18837662646570999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11">
+        <v>1.69538963819139</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18837662646570999</v>
+      </c>
+      <c r="N11">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <v>0.44843899024205225</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6">
+        <f>AVERAGE(J4:J11)</f>
+        <v>1.4981088953636612</v>
+      </c>
+      <c r="K12" s="5">
+        <f>AVERAGE(K4:K11)</f>
+        <v>0.16645654392929571</v>
+      </c>
+      <c r="N12">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <v>0.46453847295517775</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="O13">
+        <v>0.53669091409916325</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="O14">
+        <v>0.63113385298989666</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="O15">
+        <v>0.32845334378134111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16">
+        <v>4.0359509121784702</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" ref="K16:K23" si="1">J16/9</f>
+        <v>0.44843899024205225</v>
+      </c>
+      <c r="N16">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="O16">
+        <v>0.62423553060434334</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17">
+        <v>4.1808462565965998</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.46453847295517775</v>
+      </c>
+      <c r="N17">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="O17">
+        <v>0.4860935834369845</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18">
+        <v>4.8302182268924696</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.53669091409916325</v>
+      </c>
+      <c r="N18">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="O18">
+        <v>0.61417141183343882</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19">
+        <v>5.6802046769090699</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.63113385298989666</v>
+      </c>
+      <c r="N19">
+        <f>30</f>
+        <v>30</v>
+      </c>
+      <c r="O19">
+        <v>0.91148805187229442</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20">
+        <v>2.9560800940320702</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.32845334378134111</v>
+      </c>
+      <c r="N20">
+        <f>30</f>
+        <v>30</v>
+      </c>
+      <c r="O20">
+        <v>1.0224629326440211</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21">
+        <v>5.6181197754390899</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.62423553060434334</v>
+      </c>
+      <c r="N21">
+        <f>30</f>
+        <v>30</v>
+      </c>
+      <c r="O21">
+        <v>1.4891279957623555</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22">
+        <v>4.3748422509328604</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.4860935834369845</v>
+      </c>
+      <c r="N22">
+        <f>30</f>
+        <v>30</v>
+      </c>
+      <c r="O22">
+        <v>1.6737872052165887</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23">
+        <v>5.5275427065009497</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.61417141183343882</v>
+      </c>
+      <c r="N23">
+        <f>30</f>
+        <v>30</v>
+      </c>
+      <c r="O23">
+        <v>1.4636986768766334</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6">
+        <f>AVERAGE(J16:J23)</f>
+        <v>4.6504756124351978</v>
+      </c>
+      <c r="K24" s="5">
+        <f>AVERAGE(K16:K23)</f>
+        <v>0.51671951249279968</v>
+      </c>
+      <c r="N24">
+        <f>30</f>
+        <v>30</v>
+      </c>
+      <c r="O24">
+        <v>1.4783915626275557</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <f>30</f>
+        <v>30</v>
+      </c>
+      <c r="O25">
+        <v>1.7215231642355999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <f>60</f>
+        <v>60</v>
+      </c>
+      <c r="O26">
+        <v>6.1978919753630883</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27">
+        <f>60</f>
+        <v>60</v>
+      </c>
+      <c r="O27">
+        <v>6.5114728003459446</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28">
+        <v>8.2033924668506497</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" ref="K28:K35" si="2">J28/9</f>
+        <v>0.91148805187229442</v>
+      </c>
+      <c r="N28">
+        <f>60</f>
+        <v>60</v>
+      </c>
+      <c r="O28">
+        <v>15.066563683229333</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29">
+        <v>9.2021663937961904</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0224629326440211</v>
+      </c>
+      <c r="N29">
+        <f>60</f>
+        <v>60</v>
+      </c>
+      <c r="O29">
+        <v>15.841544053125224</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30">
+        <v>13.4021519618612</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4891279957623555</v>
+      </c>
+      <c r="N30">
+        <f>60</f>
+        <v>60</v>
+      </c>
+      <c r="O30">
+        <v>10.651588145359167</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31">
+        <v>15.064084846949299</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6737872052165887</v>
+      </c>
+      <c r="N31">
+        <f>60</f>
+        <v>60</v>
+      </c>
+      <c r="O31">
+        <v>6.0887869388493998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32">
+        <f>60</f>
+        <v>60</v>
+      </c>
+      <c r="O32">
+        <v>16.658341435706667</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33">
+        <v>13.173288091889701</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4636986768766334</v>
+      </c>
+      <c r="N33">
+        <f>60</f>
+        <v>60</v>
+      </c>
+      <c r="O33">
+        <v>16.361113667879888</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34">
+        <v>13.305524063648001</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4783915626275557</v>
+      </c>
+      <c r="N34">
+        <f>90</f>
+        <v>90</v>
+      </c>
+      <c r="O34">
+        <v>29.941367502453886</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35">
+        <v>15.4937084781204</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7215231642355999</v>
+      </c>
+      <c r="N35">
+        <f>90</f>
+        <v>90</v>
+      </c>
+      <c r="O35">
+        <v>30.295129400114334</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6">
+        <f>AVERAGE(J28:J35)</f>
+        <v>12.549188043302207</v>
+      </c>
+      <c r="K36" s="5">
+        <f>AVERAGE(K28:K35)</f>
+        <v>1.3943542270335783</v>
+      </c>
+      <c r="N36">
+        <f>90</f>
+        <v>90</v>
+      </c>
+      <c r="O36">
+        <v>72.478285906609656</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <f>90</f>
+        <v>90</v>
+      </c>
+      <c r="O37">
+        <v>74.642944520969337</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <f>90</f>
+        <v>90</v>
+      </c>
+      <c r="O38">
+        <v>28.034161067164998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" t="s">
+        <v>34</v>
+      </c>
+      <c r="N39">
+        <f>90</f>
+        <v>90</v>
+      </c>
+      <c r="O39">
+        <v>28.648484994261999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40">
+        <v>55.781027778267799</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" ref="K40:K47" si="3">J40/9</f>
+        <v>6.1978919753630883</v>
+      </c>
+      <c r="N40">
+        <f>90</f>
+        <v>90</v>
+      </c>
+      <c r="O40">
+        <v>79.832136035062888</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41">
+        <v>58.603255203113498</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="3"/>
+        <v>6.5114728003459446</v>
+      </c>
+      <c r="N41">
+        <f>90</f>
+        <v>90</v>
+      </c>
+      <c r="O41">
+        <v>76.243792548595991</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42">
+        <v>135.599073149064</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="3"/>
+        <v>15.066563683229333</v>
+      </c>
+      <c r="N42">
+        <f>120</f>
+        <v>120</v>
+      </c>
+      <c r="O42">
+        <v>116.58365186039221</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43">
+        <v>142.57389647812701</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="3"/>
+        <v>15.841544053125224</v>
+      </c>
+      <c r="N43">
+        <f>120</f>
+        <v>120</v>
+      </c>
+      <c r="O43">
+        <v>119.27255343512999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44">
+        <v>95.864293308232504</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="3"/>
+        <v>10.651588145359167</v>
+      </c>
+      <c r="N44">
+        <f>120</f>
+        <v>120</v>
+      </c>
+      <c r="O44">
+        <v>303.30537999373888</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45">
+        <v>54.799082449644601</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="3"/>
+        <v>6.0887869388493998</v>
+      </c>
+      <c r="N45">
+        <f>120</f>
+        <v>120</v>
+      </c>
+      <c r="O45">
+        <v>303.56033587567003</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46">
+        <v>149.92507292136</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="3"/>
+        <v>16.658341435706667</v>
+      </c>
+      <c r="N46">
+        <f>120</f>
+        <v>120</v>
+      </c>
+      <c r="O46">
+        <v>130.70410976965334</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47">
+        <v>147.25002301091899</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="3"/>
+        <v>16.361113667879888</v>
+      </c>
+      <c r="N47">
+        <f>120</f>
+        <v>120</v>
+      </c>
+      <c r="O47">
+        <v>152.34676967861111</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C48" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="6">
+        <f>AVERAGE(J40:J47)</f>
+        <v>105.04946553734105</v>
+      </c>
+      <c r="K48" s="5">
+        <f>AVERAGE(K40:K47)</f>
+        <v>11.67216283748234</v>
+      </c>
+      <c r="N48">
+        <f>120</f>
+        <v>120</v>
+      </c>
+      <c r="O48">
+        <v>323.06070966278662</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <f>120</f>
+        <v>120</v>
+      </c>
+      <c r="O49">
+        <v>314.69618927429332</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <f>200</f>
+        <v>200</v>
+      </c>
+      <c r="O50">
+        <v>920.50439074695555</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" t="s">
+        <v>34</v>
+      </c>
+      <c r="N51">
+        <f>200</f>
+        <v>200</v>
+      </c>
+      <c r="O51">
+        <v>920.74108477906566</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52">
+        <v>269.47230752208498</v>
+      </c>
+      <c r="K52" s="4">
+        <f t="shared" ref="K52:K59" si="4">J52/9</f>
+        <v>29.941367502453886</v>
+      </c>
+      <c r="N52">
+        <f>200</f>
+        <v>200</v>
+      </c>
+      <c r="O52">
+        <v>2279.405895106911</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53">
+        <v>272.65616460102899</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="4"/>
+        <v>30.295129400114334</v>
+      </c>
+      <c r="N53">
+        <f>200</f>
+        <v>200</v>
+      </c>
+      <c r="O53">
+        <v>2150.7725306112889</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54">
+        <v>652.30457315948695</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="4"/>
+        <v>72.478285906609656</v>
+      </c>
+      <c r="N54">
+        <f>200</f>
+        <v>200</v>
+      </c>
+      <c r="O54">
+        <v>885.47079017338444</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55">
+        <v>671.786500688724</v>
+      </c>
+      <c r="K55" s="4">
+        <f t="shared" si="4"/>
+        <v>74.642944520969337</v>
+      </c>
+      <c r="N55">
+        <f>200</f>
+        <v>200</v>
+      </c>
+      <c r="O55">
+        <v>977.53130908518767</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56">
+        <v>252.30744960448499</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" si="4"/>
+        <v>28.034161067164998</v>
+      </c>
+      <c r="N56">
+        <f>200</f>
+        <v>200</v>
+      </c>
+      <c r="O56">
+        <v>2118.6642242843891</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57">
+        <v>257.83636494835798</v>
+      </c>
+      <c r="K57" s="4">
+        <f t="shared" si="4"/>
+        <v>28.648484994261999</v>
+      </c>
+      <c r="N57">
+        <f>200</f>
+        <v>200</v>
+      </c>
+      <c r="O57">
+        <v>1903.0455330043224</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58">
+        <v>718.48922431556605</v>
+      </c>
+      <c r="K58" s="4">
+        <f t="shared" si="4"/>
+        <v>79.832136035062888</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59">
+        <v>686.19413293736397</v>
+      </c>
+      <c r="K59" s="4">
+        <f t="shared" si="4"/>
+        <v>76.243792548595991</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C60" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="6">
+        <f>AVERAGE(J52:J59)</f>
+        <v>472.63083972213724</v>
+      </c>
+      <c r="K60" s="5">
+        <f>AVERAGE(K52:K59)</f>
+        <v>52.514537746904139</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" t="s">
+        <v>21</v>
+      </c>
+      <c r="L63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64">
+        <v>1049.2528667435299</v>
+      </c>
+      <c r="K64" s="4">
+        <f t="shared" ref="K64:K71" si="5">J64/9</f>
+        <v>116.58365186039221</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65">
+        <v>1073.45298091617</v>
+      </c>
+      <c r="K65" s="4">
+        <f t="shared" si="5"/>
+        <v>119.27255343512999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66">
+        <v>2729.7484199436499</v>
+      </c>
+      <c r="K66" s="4">
+        <f t="shared" si="5"/>
+        <v>303.30537999373888</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67">
+        <v>2732.0430228810301</v>
+      </c>
+      <c r="K67" s="4">
+        <f t="shared" si="5"/>
+        <v>303.56033587567003</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J68">
+        <v>1176.3369879268801</v>
+      </c>
+      <c r="K68" s="4">
+        <f t="shared" si="5"/>
+        <v>130.70410976965334</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>6</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69">
+        <v>1371.1209271074999</v>
+      </c>
+      <c r="K69" s="4">
+        <f t="shared" si="5"/>
+        <v>152.34676967861111</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>7</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70">
+        <v>2907.5463869650798</v>
+      </c>
+      <c r="K70" s="4">
+        <f t="shared" si="5"/>
+        <v>323.06070966278662</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71">
+        <v>2832.2657034686399</v>
+      </c>
+      <c r="K71" s="4">
+        <f t="shared" si="5"/>
+        <v>314.69618927429332</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C72" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="6">
+        <f>AVERAGE(J64:J71)</f>
+        <v>1983.9709119940599</v>
+      </c>
+      <c r="K72" s="5">
+        <f>AVERAGE(K64:K71)</f>
+        <v>220.44121244378445</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" t="s">
+        <v>19</v>
+      </c>
+      <c r="J75" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" t="s">
+        <v>21</v>
+      </c>
+      <c r="L75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J76">
+        <v>8284.5395167225997</v>
+      </c>
+      <c r="K76" s="4">
+        <f t="shared" ref="K76:K83" si="6">J76/9</f>
+        <v>920.50439074695555</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="2">
+        <v>1</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J77">
+        <v>8286.6697630115905</v>
+      </c>
+      <c r="K77" s="4">
+        <f t="shared" si="6"/>
+        <v>920.74108477906566</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J78">
+        <v>20514.653055962201</v>
+      </c>
+      <c r="K78" s="4">
+        <f t="shared" si="6"/>
+        <v>2279.405895106911</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79">
+        <v>19356.952775501599</v>
+      </c>
+      <c r="K79" s="4">
+        <f t="shared" si="6"/>
+        <v>2150.7725306112889</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80">
+        <v>7969.2371115604601</v>
+      </c>
+      <c r="K80" s="4">
+        <f t="shared" si="6"/>
+        <v>885.47079017338444</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J81">
+        <v>8797.7817817666892</v>
+      </c>
+      <c r="K81" s="4">
+        <f t="shared" si="6"/>
+        <v>977.53130908518767</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>7</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J82">
+        <v>19067.978018559501</v>
+      </c>
+      <c r="K82" s="4">
+        <f t="shared" si="6"/>
+        <v>2118.6642242843891</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>8</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J83">
+        <v>17127.409797038901</v>
+      </c>
+      <c r="K83" s="4">
+        <f t="shared" si="6"/>
+        <v>1903.0455330043224</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C84" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="6">
+        <f>AVERAGE(J76:J83)</f>
+        <v>13675.652727515444</v>
+      </c>
+      <c r="K84" s="5">
+        <f>AVERAGE(K76:K83)</f>
+        <v>1519.516969723938</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Results_and_scripts_ps/validation_19_06/validation.xlsx
+++ b/Results_and_scripts_ps/validation_19_06/validation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12660"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Errors" sheetId="1" r:id="rId1"/>
@@ -156,9 +156,6 @@
     <t>run_20130619T041402</t>
   </si>
   <si>
-    <t>Failed, tolerance problem with ode45</t>
-  </si>
-  <si>
     <t>Error of Ntot at halfway of simulation</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>Error of Vtot at the end of simulation</t>
+  </si>
+  <si>
+    <t>Failed, tolerance problem with ode45. Fixed in later versions.</t>
   </si>
 </sst>
 </file>
@@ -554,11 +554,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="39181696"/>
-        <c:axId val="94446720"/>
+        <c:axId val="38460800"/>
+        <c:axId val="105657472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39181696"/>
+        <c:axId val="38460800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,12 +568,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94446720"/>
+        <c:crossAx val="105657472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94446720"/>
+        <c:axId val="105657472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -584,7 +584,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39181696"/>
+        <c:crossAx val="38460800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1002,11 +1002,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="94475392"/>
-        <c:axId val="94476928"/>
+        <c:axId val="105682048"/>
+        <c:axId val="105683584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94475392"/>
+        <c:axId val="105682048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,12 +1016,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94476928"/>
+        <c:crossAx val="105683584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94476928"/>
+        <c:axId val="105683584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +1032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94475392"/>
+        <c:crossAx val="105682048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1408,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1506,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2424,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O84"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,7 +2433,7 @@
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -3348,7 +3348,7 @@
         <v>10</v>
       </c>
       <c r="L32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N32">
         <f>60</f>
